--- a/textbook/public/barChart.xlsx
+++ b/textbook/public/barChart.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,29 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -87,6 +64,9 @@
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:t>Olympic Gold medals in London</a:t>
             </a:r>
@@ -109,12 +89,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>Sheet!$A$1:$A$6</f>
+              <f>'Sheet'!$A$1:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$1:$B$6</f>
+              <f>'Sheet'!$B$1:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -474,56 +454,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
       </c>
       <c r="B1" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>